--- a/REVER_DailyTracker_20201006.xlsx
+++ b/REVER_DailyTracker_20201006.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\Daily_Tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eswar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7A0BCD-951E-4863-921F-02FD80AD3ADC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2521DD61-5C9B-4275-94D6-64EB4BE9701D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="32">
   <si>
     <t>Task</t>
   </si>
@@ -130,29 +130,7 @@
     <t>Week off</t>
   </si>
   <si>
-    <t>Soniya</t>
-  </si>
-  <si>
-    <t>Creating Setup file</t>
-  </si>
-  <si>
-    <t>1. DRS-Weekly correction received and completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Return Credit Correction received and completed </t>
-  </si>
-  <si>
-    <t>Daily Task of Scheduling Report has been completed for download and upload (11 files 
-except one is having upload issue which under progress by Mohan san)</t>
-  </si>
-  <si>
-    <t>DRS Count - Saw Discount changes and Issue</t>
-  </si>
-  <si>
-    <t>Application- Login page and Front end  sample Layout design. Sample completed</t>
-  </si>
-  <si>
-    <t>Application- Front end  sample 2nd Layout design. Sample completed</t>
+    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site &amp; Regression testing on B2C app and Hayaai site</t>
   </si>
 </sst>
 </file>
@@ -162,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,7 +182,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -213,12 +191,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="8">
@@ -321,7 +293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -405,29 +377,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,19 +699,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="82.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="78.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -781,7 +735,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -821,165 +775,6 @@
       <c r="F3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="45">
-        <v>44109</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="46">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="D5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="46">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
-      <c r="A6" s="47">
-        <v>4</v>
-      </c>
-      <c r="B6" s="45">
-        <v>44109</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="46">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -1033,23 +828,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00652D81-D94A-470E-A003-BD391FDB1C04}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1140,310 +935,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33">
-        <v>44105</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33">
-        <v>44105</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33">
-        <v>44109</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00652D81-D94A-470E-A003-BD391FDB1C04}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1534,37 +1046,36 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G23"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -1580,107 +1091,227 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33">
         <v>44105</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25" t="s">
+      <c r="C2" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="35" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="28.8">
-      <c r="A3" s="20">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="21">
-        <v>44109</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="25" t="s">
+      <c r="B3" s="33">
+        <v>44105</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="35" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="28.8">
-      <c r="A4" s="20">
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21">
-        <v>44110</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="22">
-        <v>1</v>
-      </c>
-      <c r="F4" s="25" t="s">
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:3">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1690,23 +1321,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1801,23 +1432,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G26"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1843,28 +1474,126 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8">
-      <c r="A2" s="1">
+    <row r="2" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="B2" s="21">
         <v>44105</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="28">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="27" t="s">
-        <v>18</v>
-      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:3">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="11"/>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -1926,224 +1655,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="26">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="31">
-        <v>44106</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="31">
-        <v>44107</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="31">
-        <v>44108</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="31">
-        <v>44109</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2169,14 +1697,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="28">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -2238,23 +1780,158 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
-  <dimension ref="A1:G29"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2280,7 +1957,118 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2312,9 +2100,9 @@
       <c r="D3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
@@ -2327,9 +2115,9 @@
       <c r="D4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
@@ -2342,11 +2130,11 @@
       <c r="D5" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:7" ht="43.2">
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+    </row>
+    <row r="6" spans="1:7" ht="45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2359,15 +2147,35 @@
       <c r="D6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="39">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="45">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="31">
+        <v>44110</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
     <row r="8" spans="1:7" s="4" customFormat="1"/>
     <row r="9" spans="1:7" s="4" customFormat="1"/>
     <row r="10" spans="1:7" s="4" customFormat="1"/>

--- a/REVER_DailyTracker_20201006.xlsx
+++ b/REVER_DailyTracker_20201006.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eswar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2521DD61-5C9B-4275-94D6-64EB4BE9701D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667E00F0-FC21-4C94-9D4B-AFAF053BFDD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="34">
   <si>
     <t>Task</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site &amp; Regression testing on B2C app and Hayaai site</t>
+  </si>
+  <si>
+    <t>Soniya</t>
+  </si>
+  <si>
+    <t>creating Setup file</t>
   </si>
 </sst>
 </file>
@@ -293,7 +299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -382,6 +388,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,15 +718,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="78.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="78.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -735,7 +750,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -836,15 +851,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -947,15 +962,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1057,15 +1072,15 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1329,15 +1344,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1440,15 +1455,15 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1552,15 +1567,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1663,15 +1678,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1697,7 +1712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="28.8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1784,19 +1799,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -1862,6 +1877,203 @@
       <c r="F3" s="25" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="31">
+        <v>44106</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="31">
+        <v>44107</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31">
+        <v>44108</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="31">
+        <v>44109</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="31">
+        <v>44110</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -1915,23 +2127,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G26"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1957,118 +2169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
-  <dimension ref="A1:G29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="45">
+    <row r="2" spans="1:7" ht="46.8" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2134,7 +2235,7 @@
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
     </row>
-    <row r="6" spans="1:7" ht="45">
+    <row r="6" spans="1:7" ht="43.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2155,7 +2256,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A7" s="13">
         <v>6</v>
       </c>

--- a/REVER_DailyTracker_20201006.xlsx
+++ b/REVER_DailyTracker_20201006.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667E00F0-FC21-4C94-9D4B-AFAF053BFDD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{836E604F-F00B-42DD-BB95-0ADD8A5CC15F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="34">
   <si>
     <t>Task</t>
   </si>
@@ -133,10 +133,10 @@
     <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site &amp; Regression testing on B2C app and Hayaai site</t>
   </si>
   <si>
-    <t>Soniya</t>
-  </si>
-  <si>
-    <t>creating Setup file</t>
+    <t>Application- Login page and Front end  sample Layout design. Sample completed</t>
+  </si>
+  <si>
+    <t>Application- Front end  sample 2nd Layout design. Sample completed</t>
   </si>
 </sst>
 </file>
@@ -243,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -292,6 +292,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -299,7 +323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -388,15 +412,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1451,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1510,8 +1533,48 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="28.8" customHeight="1">
+      <c r="A3" s="42">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33">
+        <v>44109</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="32">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="42"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A4" s="43">
+        <v>3</v>
+      </c>
+      <c r="B4" s="44">
+        <v>44110</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="47">
+        <v>1</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="43"/>
+    </row>
     <row r="5" spans="1:7" s="4" customFormat="1"/>
     <row r="6" spans="1:7" s="4" customFormat="1"/>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
@@ -1799,8 +1862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1879,93 +1942,11 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="31">
-        <v>44106</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="31">
-        <v>44107</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="31">
-        <v>44108</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="31">
-        <v>44109</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="13">
-        <v>6</v>
-      </c>
-      <c r="B8" s="31">
-        <v>44110</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
     <row r="9" spans="1:7" s="4" customFormat="1"/>
     <row r="10" spans="1:7" s="4" customFormat="1"/>
     <row r="11" spans="1:7" s="4" customFormat="1"/>
@@ -1983,9 +1964,7 @@
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="42" t="s">
-        <v>3</v>
-      </c>
+      <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -1997,9 +1976,7 @@
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="44" t="s">
-        <v>5</v>
-      </c>
+      <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
@@ -2132,7 +2109,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2169,7 +2146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="46.8" customHeight="1">
+    <row r="2" spans="1:7" ht="43.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>

--- a/REVER_DailyTracker_20201006.xlsx
+++ b/REVER_DailyTracker_20201006.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\Daily_Tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{836E604F-F00B-42DD-BB95-0ADD8A5CC15F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EE85EA-1E7C-4559-A308-BC4202525BBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="40">
   <si>
     <t>Task</t>
   </si>
@@ -137,6 +137,25 @@
   </si>
   <si>
     <t>Application- Front end  sample 2nd Layout design. Sample completed</t>
+  </si>
+  <si>
+    <t>1. DRS-Weekly correction received and completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Return Credit Correction received and completed </t>
+  </si>
+  <si>
+    <t>Daily Task of Scheduling Report has been completed for download and upload (11 files 
+except one is having upload issue which under progress by Mohan san)</t>
+  </si>
+  <si>
+    <t>1. DRS-WeeKly task of SSC8 , Correction has been done</t>
+  </si>
+  <si>
+    <t>2. DRS-DAILY task of SSC11, Correction has been done</t>
+  </si>
+  <si>
+    <t>1. SchedulingReport daiky has been completed</t>
   </si>
 </sst>
 </file>
@@ -323,7 +342,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -420,6 +439,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -815,13 +839,109 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="48">
+        <v>44109</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="49">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="49">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="48">
+        <v>44109</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="49">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="48">
+        <v>44110</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="49">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="49">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="48">
+        <v>44110</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="49">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="11" spans="1:7" s="4" customFormat="1"/>
     <row r="12" spans="1:7" s="4" customFormat="1"/>
     <row r="13" spans="1:7" s="4" customFormat="1"/>
@@ -1474,7 +1594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/REVER_DailyTracker_20201006.xlsx
+++ b/REVER_DailyTracker_20201006.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EE85EA-1E7C-4559-A308-BC4202525BBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36B2BF3-854A-4C78-B874-A5E11B7899EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="41">
   <si>
     <t>Task</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>1. SchedulingReport daiky has been completed</t>
+  </si>
+  <si>
+    <t>2. SchedulingReport Monthly task has been completed</t>
   </si>
 </sst>
 </file>
@@ -342,7 +345,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -444,6 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,7 +766,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -870,7 +874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -942,7 +946,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="D11" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="49">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="12" spans="1:7" s="4" customFormat="1"/>
     <row r="13" spans="1:7" s="4" customFormat="1"/>
     <row r="14" spans="1:7" s="4" customFormat="1"/>

--- a/REVER_DailyTracker_20201006.xlsx
+++ b/REVER_DailyTracker_20201006.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36B2BF3-854A-4C78-B874-A5E11B7899EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D46374-3DBF-4113-8DB7-4F3B6DC38DAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="390" windowWidth="20460" windowHeight="10890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="43">
   <si>
     <t>Task</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>2. SchedulingReport Monthly task has been completed</t>
+  </si>
+  <si>
+    <t>DRS Count - Saw Discount changes and Issue</t>
+  </si>
+  <si>
+    <t>DRS Count - Saw Discount Summary &amp; Details</t>
   </si>
 </sst>
 </file>
@@ -345,7 +351,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -448,6 +454,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -765,19 +774,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="78.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="78.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -801,7 +810,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -874,7 +883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1008,15 +1017,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1119,15 +1128,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1225,19 +1234,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1306,21 +1315,45 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33">
+        <v>44109</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>5</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33">
+        <v>44110</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>3</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -1501,15 +1534,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1612,15 +1645,15 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1667,7 +1700,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="28.8" customHeight="1">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="28.9" customHeight="1">
       <c r="A3" s="42">
         <v>2</v>
       </c>
@@ -1688,7 +1721,7 @@
       </c>
       <c r="G3" s="42"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A4" s="43">
         <v>3</v>
       </c>
@@ -1764,15 +1797,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1875,15 +1908,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1909,7 +1942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2000,15 +2033,15 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -2135,15 +2168,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2246,15 +2279,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2280,7 +2313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2">
+    <row r="2" spans="1:7" ht="45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2346,7 +2379,7 @@
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
     </row>
-    <row r="6" spans="1:7" ht="43.2">
+    <row r="6" spans="1:7" ht="45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2367,7 +2400,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A7" s="13">
         <v>6</v>
       </c>

--- a/REVER_DailyTracker_20201006.xlsx
+++ b/REVER_DailyTracker_20201006.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D46374-3DBF-4113-8DB7-4F3B6DC38DAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACBB3BB-FE3F-4008-A9D4-07A93585CF4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="390" windowWidth="20460" windowHeight="10890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="48">
   <si>
     <t>Task</t>
   </si>
@@ -165,14 +165,30 @@
   </si>
   <si>
     <t>DRS Count - Saw Discount Summary &amp; Details</t>
+  </si>
+  <si>
+    <t>QMVAR-RPA</t>
+  </si>
+  <si>
+    <t>InvoiceUpdate IW/OW error correction</t>
+  </si>
+  <si>
+    <t>HAYAAI-B2B</t>
+  </si>
+  <si>
+    <t>New API for inserting job sheet details for Pickup</t>
+  </si>
+  <si>
+    <t>wip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -216,7 +232,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -351,7 +367,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -456,6 +472,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -778,15 +817,15 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="78.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="78.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -810,7 +849,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -883,7 +922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1017,15 +1056,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1128,15 +1167,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1234,19 +1273,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1530,19 +1569,363 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="56" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="65" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="54">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="62">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="54">
+        <v>44109</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="62">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="B4" s="54">
+        <v>44110</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="63">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="B5" s="55"/>
+      <c r="E5" s="64"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1">
+      <c r="B6" s="55"/>
+      <c r="E6" s="64"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1">
+      <c r="B7" s="55"/>
+      <c r="E7" s="64"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="B8" s="55"/>
+      <c r="E8" s="64"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="B9" s="55"/>
+      <c r="E9" s="64"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="B10" s="55"/>
+      <c r="E10" s="64"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="B11" s="55"/>
+      <c r="E11" s="64"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="B12" s="55"/>
+      <c r="E12" s="64"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="B13" s="55"/>
+      <c r="E13" s="64"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="B14" s="55"/>
+      <c r="E14" s="64"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1">
+      <c r="B15" s="55"/>
+      <c r="E15" s="64"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1">
+      <c r="B16" s="55"/>
+      <c r="E16" s="64"/>
+    </row>
+    <row r="17" spans="2:5" s="4" customFormat="1">
+      <c r="B17" s="55"/>
+      <c r="E17" s="64"/>
+    </row>
+    <row r="18" spans="2:5" s="4" customFormat="1">
+      <c r="B18" s="55"/>
+      <c r="E18" s="64"/>
+    </row>
+    <row r="19" spans="2:5" s="4" customFormat="1">
+      <c r="B19" s="55"/>
+      <c r="E19" s="64"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="57"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="58"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="59"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="60"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="28.95" customHeight="1">
+      <c r="A3" s="42">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33">
+        <v>44109</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="32">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="42"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A4" s="43">
+        <v>3</v>
+      </c>
+      <c r="B4" s="44">
+        <v>44110</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="47">
+        <v>1</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="43"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:3">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="11"/>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1637,23 +2020,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G23"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1679,166 +2062,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="20">
+    <row r="2" spans="1:7" ht="28.8">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="21">
         <v>44105</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="28.9" customHeight="1">
-      <c r="A3" s="42">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33">
-        <v>44109</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="32">
-        <v>1</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="42"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A4" s="43">
-        <v>3</v>
-      </c>
-      <c r="B4" s="44">
-        <v>44110</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="47">
-        <v>1</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="43"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:3">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="28">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -1900,26 +2145,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1942,36 +2187,46 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="1">
+    <row r="2" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="B2" s="21">
         <v>44105</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="28">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>18</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -2025,26 +2280,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2067,46 +2322,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="26">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -2160,117 +2391,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
   <dimension ref="A1:G29"/>
@@ -2279,15 +2399,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2313,7 +2433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45">
+    <row r="2" spans="1:7" ht="43.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2379,7 +2499,7 @@
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
     </row>
-    <row r="6" spans="1:7" ht="45">
+    <row r="6" spans="1:7" ht="43.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2400,7 +2520,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A7" s="13">
         <v>6</v>
       </c>
